--- a/Generate_TestCase_Selenium-Web/ValidateItem/ValidateElement-LoginFail.xlsx
+++ b/Generate_TestCase_Selenium-Web/ValidateItem/ValidateElement-LoginFail.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>xpath</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Email hoặc số điện thoại bạn đã nhập không khớp với bất kỳ tài khoản nào. Đăng ký tài khoản.</t>
+  </si>
+  <si>
+    <t>Mật khẩu bạn đã nhập không chính xác. Quên mật khẩu?</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,6 +404,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
